--- a/Task_2_1_1/src/main/resources/Книга1.xlsx
+++ b/Task_2_1_1/src/main/resources/Книга1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\P2\OOP\Task_2_1_1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\OOPworkspace\OOP\Task_2_1_1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9860C7-9FF1-4320-BDBC-72F171AD077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4654A8-73B7-4A35-BF60-4B606C6667ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35C8ECB9-B3B1-409C-AFC1-F32139A8A67D}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -133,15 +131,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -161,92 +161,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.0167310167310168E-2"/>
-                  <c:y val="-6.2465368912219391E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8D17-4957-9235-674B0FB0F664}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$6</c:f>
+              <c:f>Лист1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -254,47 +174,188 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$6</c:f>
+              <c:f>Лист1!$B$1:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>73000</c:v>
+                  <c:v>5147807700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217950300</c:v>
+                  <c:v>2873902600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144749400</c:v>
+                  <c:v>1898699700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79787600</c:v>
+                  <c:v>1610635100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82239500</c:v>
+                  <c:v>1410898500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28677100</c:v>
+                  <c:v>1245232500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1034570700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>972590800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>888411700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>871900600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>877802500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>845964500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>878727700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>846769200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>844218700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>889480900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>866943200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>847310600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>844993200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>873584800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>863327000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>853686300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>878083400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>908113200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>853075500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>866615000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>862565800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>858907400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>844253300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>807512400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -303,18 +364,19 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="833717904"/>
         <c:axId val="833719824"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="833717904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -374,8 +436,11 @@
         </c:txPr>
         <c:crossAx val="833719824"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="833719824"/>
         <c:scaling>
@@ -436,7 +501,7 @@
         </c:txPr>
         <c:crossAx val="833717904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1056,10 +1121,10 @@
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1384,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4F3333-A6F8-494D-BA74-722D21241974}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+      <selection activeCell="B12" sqref="B1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>73000</v>
+        <v>5147807700</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,39 +1470,233 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>217950300</v>
+        <v>2873902600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>144749400</v>
+        <v>1898699700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>79787600</v>
+        <v>1610635100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>82239500</v>
+        <v>1410898500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>28677100</v>
+        <v>1245232500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1034570700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>972590800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>888411700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>871900600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>877802500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>845964500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>878727700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>846769200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>844218700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>889480900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>866943200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>847310600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>844993200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>873584800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>863327000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>853686300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>878083400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>908113200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>853075500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>866615000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>862565800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>858907400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>844253300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>807512400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>807512400</v>
       </c>
     </row>
   </sheetData>

--- a/Task_2_1_1/src/main/resources/Книга1.xlsx
+++ b/Task_2_1_1/src/main/resources/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\OOPworkspace\OOP\Task_2_1_1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FC7AD-B75A-4693-8C40-5FF3B9838AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4654A8-73B7-4A35-BF60-4B606C6667ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35C8ECB9-B3B1-409C-AFC1-F32139A8A67D}"/>
   </bookViews>
@@ -138,7 +138,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -161,98 +161,197 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$31</c:f>
+              <c:f>Лист1!$B$1:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5147807700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2873902600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1898699700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1610635100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1410898500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1245232500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>1034570700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>972590800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>888411700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>871900600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>877802500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>845964500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>878727700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>846769200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>844218700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>889480900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>866943200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>847310600</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>844993200</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>873584800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>863327000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>853686300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>878083400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>908113200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>853075500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>866615000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>862565800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>858907400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>844253300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>807512400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,273 +359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BA7-4AB5-B2C5-6C3FD767D3B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$1:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>27483775200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14135576400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9983709200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8009454500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6813996800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6060298300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5805669700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5366991100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5277933900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5094372100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4982368300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4926130500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5103094800</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4958595400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5026576400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4943297400</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4983943900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5039580500</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5042056400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5093919800</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5046002000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5018744600</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4986922600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5022017300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5044346700</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5011874100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5060009500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4969917500</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5026259500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5195299700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BA7-4AB5-B2C5-6C3FD767D3B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$C$1:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>30649513500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20132277100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13537929400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11279974400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9454132100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7877184400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6904760800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6016308500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5479330100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5242443600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5071789500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5058419300</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5325969300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5300412601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5255282501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4998982501</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5024084301</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5081207400</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5091643600</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4997994100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5034730700</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5110547000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5027780300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5078573000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5161940800</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4980582200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4993449700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5024467100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4970129700</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5191293400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7BA7-4AB5-B2C5-6C3FD767D3B3}"/>
+              <c16:uniqueId val="{00000000-8D17-4957-9235-674B0FB0F664}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -540,16 +373,31 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344440816"/>
-        <c:axId val="344448496"/>
+        <c:axId val="833717904"/>
+        <c:axId val="833719824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344440816"/>
+        <c:axId val="833717904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -558,8 +406,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -586,15 +434,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344448496"/>
+        <c:crossAx val="833719824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344448496"/>
+        <c:axId val="833719824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,8 +468,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -645,7 +499,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344440816"/>
+        <c:crossAx val="833717904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,37 +511,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -773,7 +596,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -800,8 +623,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -902,7 +725,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -934,10 +757,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -977,22 +800,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1097,8 +921,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1230,19 +1054,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1256,6 +1081,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1279,23 +1115,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696B9ECF-359D-1409-8124-C9ED9AEBA29E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0F64AC-EDF4-6F83-7B51-3F036D574FBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,339 +1449,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4F3333-A6F8-494D-BA74-722D21241974}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C30"/>
+      <selection activeCell="B12" sqref="B1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>27483775200</v>
-      </c>
-      <c r="C1">
-        <v>30649513500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5147807700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>14135576400</v>
-      </c>
-      <c r="C2">
-        <v>20132277100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2873902600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9983709200</v>
-      </c>
-      <c r="C3">
-        <v>13537929400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1898699700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8009454500</v>
-      </c>
-      <c r="C4">
-        <v>11279974400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1610635100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6813996800</v>
-      </c>
-      <c r="C5">
-        <v>9454132100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1410898500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6060298300</v>
-      </c>
-      <c r="C6">
-        <v>7877184400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1245232500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5805669700</v>
-      </c>
-      <c r="C7">
-        <v>6904760800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1034570700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5366991100</v>
-      </c>
-      <c r="C8">
-        <v>6016308500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>972590800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5277933900</v>
-      </c>
-      <c r="C9">
-        <v>5479330100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>888411700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5094372100</v>
-      </c>
-      <c r="C10">
-        <v>5242443600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>871900600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4982368300</v>
-      </c>
-      <c r="C11">
-        <v>5071789500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>877802500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4926130500</v>
-      </c>
-      <c r="C12">
-        <v>5058419300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>845964500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5103094800</v>
-      </c>
-      <c r="C13">
-        <v>5325969300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>878727700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4958595400</v>
-      </c>
-      <c r="C14">
-        <v>5300412601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>846769200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5026576400</v>
-      </c>
-      <c r="C15">
-        <v>5255282501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>844218700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4943297400</v>
-      </c>
-      <c r="C16">
-        <v>4998982501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>889480900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4983943900</v>
-      </c>
-      <c r="C17">
-        <v>5024084301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>866943200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5039580500</v>
-      </c>
-      <c r="C18">
-        <v>5081207400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>847310600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5042056400</v>
-      </c>
-      <c r="C19">
-        <v>5091643600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>844993200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5093919800</v>
-      </c>
-      <c r="C20">
-        <v>4997994100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>873584800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5046002000</v>
-      </c>
-      <c r="C21">
-        <v>5034730700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>863327000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5018744600</v>
-      </c>
-      <c r="C22">
-        <v>5110547000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>853686300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4986922600</v>
-      </c>
-      <c r="C23">
-        <v>5027780300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>878083400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5022017300</v>
-      </c>
-      <c r="C24">
-        <v>5078573000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>908113200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5044346700</v>
-      </c>
-      <c r="C25">
-        <v>5161940800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>853075500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5011874100</v>
-      </c>
-      <c r="C26">
-        <v>4980582200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>866615000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5060009500</v>
-      </c>
-      <c r="C27">
-        <v>4993449700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>862565800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>4969917500</v>
-      </c>
-      <c r="C28">
-        <v>5024467100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>858907400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5026259500</v>
-      </c>
-      <c r="C29">
-        <v>4970129700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>844253300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>5195299700</v>
-      </c>
-      <c r="C30">
-        <v>5191293400</v>
+        <v>807512400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>807512400</v>
       </c>
     </row>
   </sheetData>
